--- a/data/pca/factorExposure/factorExposure_2014-12-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01017902162011244</v>
+        <v>-0.01115669934365616</v>
       </c>
       <c r="C2">
-        <v>-0.05207593897140367</v>
+        <v>0.06373992669350236</v>
       </c>
       <c r="D2">
-        <v>-0.1616475222254014</v>
+        <v>-0.03694896703345272</v>
       </c>
       <c r="E2">
-        <v>-0.1152885677181781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.1486949406223389</v>
+      </c>
+      <c r="F2">
+        <v>-0.06511794424417591</v>
+      </c>
+      <c r="G2">
+        <v>-0.1103717486998324</v>
+      </c>
+      <c r="H2">
+        <v>-0.05865044610509681</v>
+      </c>
+      <c r="I2">
+        <v>0.06999911030594508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03606560327467351</v>
+        <v>-0.01981255215138523</v>
       </c>
       <c r="C4">
-        <v>-0.1353666199112153</v>
+        <v>0.1501317548023523</v>
       </c>
       <c r="D4">
-        <v>-0.1134842787250291</v>
+        <v>-0.00668079974148869</v>
       </c>
       <c r="E4">
-        <v>-0.05055437251928652</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.1023605011264392</v>
+      </c>
+      <c r="F4">
+        <v>0.06092741778638508</v>
+      </c>
+      <c r="G4">
+        <v>-0.05703257235439906</v>
+      </c>
+      <c r="H4">
+        <v>-0.0959272345265388</v>
+      </c>
+      <c r="I4">
+        <v>-0.03136183818337666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.0150954512924213</v>
+        <v>-0.02974770118577336</v>
       </c>
       <c r="C6">
-        <v>-0.05311941558541153</v>
+        <v>0.06223127749498166</v>
       </c>
       <c r="D6">
-        <v>-0.08311693902979644</v>
+        <v>-0.01697580323140768</v>
       </c>
       <c r="E6">
-        <v>-0.07167561499546987</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.1084662285057104</v>
+      </c>
+      <c r="F6">
+        <v>-0.03401312702303028</v>
+      </c>
+      <c r="G6">
+        <v>0.01470134234779929</v>
+      </c>
+      <c r="H6">
+        <v>-0.035093378527801</v>
+      </c>
+      <c r="I6">
+        <v>0.02408920841275662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.009312554886757833</v>
+        <v>-0.007371386288352759</v>
       </c>
       <c r="C7">
-        <v>-0.04698361905920338</v>
+        <v>0.06253338088577391</v>
       </c>
       <c r="D7">
-        <v>-0.05381000906211943</v>
+        <v>-0.012392869659169</v>
       </c>
       <c r="E7">
-        <v>-0.04708976575146637</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.06727132444653237</v>
+      </c>
+      <c r="F7">
+        <v>0.02755970271594728</v>
+      </c>
+      <c r="G7">
+        <v>0.03233845882214086</v>
+      </c>
+      <c r="H7">
+        <v>-0.08413626620036781</v>
+      </c>
+      <c r="I7">
+        <v>0.003746984582032248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.01098927097091884</v>
+        <v>0.008654758124886345</v>
       </c>
       <c r="C8">
-        <v>-0.0552372319866833</v>
+        <v>0.06331263470789132</v>
       </c>
       <c r="D8">
-        <v>-0.09040786165758727</v>
+        <v>0.006485708717117072</v>
       </c>
       <c r="E8">
-        <v>-0.1024858420879176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.08852263197617204</v>
+      </c>
+      <c r="F8">
+        <v>0.01900993599707518</v>
+      </c>
+      <c r="G8">
+        <v>-0.07900202881290527</v>
+      </c>
+      <c r="H8">
+        <v>-0.0237782661162828</v>
+      </c>
+      <c r="I8">
+        <v>0.006723572912537211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.02066306969394618</v>
+        <v>-0.0117549158749844</v>
       </c>
       <c r="C9">
-        <v>-0.110712551000317</v>
+        <v>0.1185836520244435</v>
       </c>
       <c r="D9">
-        <v>-0.09163915633853444</v>
+        <v>-0.008517109807211336</v>
       </c>
       <c r="E9">
-        <v>-0.05302533926729709</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.08104685240309381</v>
+      </c>
+      <c r="F9">
+        <v>0.01321868914169188</v>
+      </c>
+      <c r="G9">
+        <v>-0.01307571463453126</v>
+      </c>
+      <c r="H9">
+        <v>-0.09718054588613327</v>
+      </c>
+      <c r="I9">
+        <v>-0.003813680910403932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.2349738717818247</v>
+        <v>-0.2446786646594902</v>
       </c>
       <c r="C10">
-        <v>0.09711356298270171</v>
+        <v>-0.08202656127513878</v>
       </c>
       <c r="D10">
-        <v>0.007239305313224735</v>
+        <v>0.00548134328636574</v>
       </c>
       <c r="E10">
-        <v>0.09053594368814971</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01682408687842398</v>
+      </c>
+      <c r="F10">
+        <v>0.00980228256297499</v>
+      </c>
+      <c r="G10">
+        <v>-0.0002522806066451558</v>
+      </c>
+      <c r="H10">
+        <v>-0.02845399000895484</v>
+      </c>
+      <c r="I10">
+        <v>-0.1881513741740291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.005767719356875091</v>
+        <v>-0.01147282364258746</v>
       </c>
       <c r="C11">
-        <v>-0.04813457782845614</v>
+        <v>0.07020861719317119</v>
       </c>
       <c r="D11">
-        <v>-0.0406438954811888</v>
+        <v>0.002344548418569895</v>
       </c>
       <c r="E11">
-        <v>-0.03455273092641786</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.05240433265179121</v>
+      </c>
+      <c r="F11">
+        <v>0.01724339163122055</v>
+      </c>
+      <c r="G11">
+        <v>0.02724203650375828</v>
+      </c>
+      <c r="H11">
+        <v>-0.03986765844179636</v>
+      </c>
+      <c r="I11">
+        <v>0.0003329572053210288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01103216695459655</v>
+        <v>-0.01362800666554965</v>
       </c>
       <c r="C12">
-        <v>-0.05203002135610066</v>
+        <v>0.05972210681364181</v>
       </c>
       <c r="D12">
-        <v>-0.03252874583405099</v>
+        <v>-0.004715509025238434</v>
       </c>
       <c r="E12">
-        <v>-0.02294911655373054</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.03580287528328618</v>
+      </c>
+      <c r="F12">
+        <v>-0.01068701477035554</v>
+      </c>
+      <c r="G12">
+        <v>0.0303940713339324</v>
+      </c>
+      <c r="H12">
+        <v>-0.04314583447072207</v>
+      </c>
+      <c r="I12">
+        <v>-0.01000440381508676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.004678968283942866</v>
+        <v>-0.002427483032899985</v>
       </c>
       <c r="C13">
-        <v>-0.06152964771191378</v>
+        <v>0.09461999482457491</v>
       </c>
       <c r="D13">
-        <v>-0.1228479326175405</v>
+        <v>-0.04684065550924747</v>
       </c>
       <c r="E13">
-        <v>-0.1224910093970215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.1592171826617854</v>
+      </c>
+      <c r="F13">
+        <v>-0.0930812056707042</v>
+      </c>
+      <c r="G13">
+        <v>0.04290296893925953</v>
+      </c>
+      <c r="H13">
+        <v>-0.09115904186716053</v>
+      </c>
+      <c r="I13">
+        <v>-0.09441836768005775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.004973678275994329</v>
+        <v>-0.007352436790378796</v>
       </c>
       <c r="C14">
-        <v>-0.02994565242651891</v>
+        <v>0.05744941815936126</v>
       </c>
       <c r="D14">
-        <v>-0.054494825785943</v>
+        <v>0.004481691953237802</v>
       </c>
       <c r="E14">
-        <v>-0.06363255347454036</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.1039807228663523</v>
+      </c>
+      <c r="F14">
+        <v>-0.02396202836155887</v>
+      </c>
+      <c r="G14">
+        <v>0.06161704130946315</v>
+      </c>
+      <c r="H14">
+        <v>-0.1532943752714577</v>
+      </c>
+      <c r="I14">
+        <v>0.02806994089229894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.004596218371309403</v>
+        <v>0.004194723961444119</v>
       </c>
       <c r="C15">
-        <v>-0.03717506636487464</v>
+        <v>0.05594093898794308</v>
       </c>
       <c r="D15">
-        <v>-0.08209699334216479</v>
+        <v>-0.01191740440573522</v>
       </c>
       <c r="E15">
-        <v>-0.07674825736109246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.08128868317293123</v>
+      </c>
+      <c r="F15">
+        <v>0.01012713106131295</v>
+      </c>
+      <c r="G15">
+        <v>0.01728526026469258</v>
+      </c>
+      <c r="H15">
+        <v>-0.053860949111826</v>
+      </c>
+      <c r="I15">
+        <v>0.01425857790120098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.008498669722165852</v>
+        <v>-0.01137931036189513</v>
       </c>
       <c r="C16">
-        <v>-0.04600579783547582</v>
+        <v>0.061348959010994</v>
       </c>
       <c r="D16">
-        <v>-0.03257749179379934</v>
+        <v>-0.00408370302742689</v>
       </c>
       <c r="E16">
-        <v>-0.02460046976701763</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.03654541389046859</v>
+      </c>
+      <c r="F16">
+        <v>0.003533152459865824</v>
+      </c>
+      <c r="G16">
+        <v>0.02966947957545612</v>
+      </c>
+      <c r="H16">
+        <v>-0.0384570069546196</v>
+      </c>
+      <c r="I16">
+        <v>-0.007153815262868714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.002932515730043046</v>
+        <v>0.001196597436492538</v>
       </c>
       <c r="C19">
-        <v>-0.0001976363874249846</v>
+        <v>0.0003966604978217882</v>
       </c>
       <c r="D19">
-        <v>-0.01237417137456228</v>
+        <v>-0.002810884861578803</v>
       </c>
       <c r="E19">
-        <v>-0.01111111980580445</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.01013941713670532</v>
+      </c>
+      <c r="F19">
+        <v>-7.134851026472404e-05</v>
+      </c>
+      <c r="G19">
+        <v>-0.002485498136055693</v>
+      </c>
+      <c r="H19">
+        <v>-0.01435511896440824</v>
+      </c>
+      <c r="I19">
+        <v>0.006180158900169549</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.004532166510149178</v>
+        <v>-0.003302435542833617</v>
       </c>
       <c r="C20">
-        <v>-0.04293350427337899</v>
+        <v>0.06820344202621796</v>
       </c>
       <c r="D20">
-        <v>-0.08296635517798905</v>
+        <v>-0.02024502955969928</v>
       </c>
       <c r="E20">
-        <v>-0.04018542681486652</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.07680786195247927</v>
+      </c>
+      <c r="F20">
+        <v>0.02611358040066352</v>
+      </c>
+      <c r="G20">
+        <v>0.05835629390978085</v>
+      </c>
+      <c r="H20">
+        <v>-0.06706947064898018</v>
+      </c>
+      <c r="I20">
+        <v>-0.001573255711862302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.00517865505422579</v>
+        <v>-0.006695746961648747</v>
       </c>
       <c r="C21">
-        <v>-0.06064944146794924</v>
+        <v>0.0699270783742635</v>
       </c>
       <c r="D21">
-        <v>-0.1147957285948678</v>
+        <v>-0.01938944953153792</v>
       </c>
       <c r="E21">
-        <v>-0.05332101565796042</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.1018874043047152</v>
+      </c>
+      <c r="F21">
+        <v>-0.0825140600077179</v>
+      </c>
+      <c r="G21">
+        <v>-0.006458873964309254</v>
+      </c>
+      <c r="H21">
+        <v>-0.1770758752029354</v>
+      </c>
+      <c r="I21">
+        <v>-0.04709539408469709</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.007661658091762027</v>
+        <v>0.01396824995927739</v>
       </c>
       <c r="C22">
-        <v>-0.07945522234387037</v>
+        <v>0.1148272780678956</v>
       </c>
       <c r="D22">
-        <v>-0.2768387265136353</v>
+        <v>-0.09505600178054184</v>
       </c>
       <c r="E22">
-        <v>-0.1051563746249366</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.2901662349978138</v>
+      </c>
+      <c r="F22">
+        <v>0.08537762125906398</v>
+      </c>
+      <c r="G22">
+        <v>-0.3365135864524142</v>
+      </c>
+      <c r="H22">
+        <v>0.4193013842467716</v>
+      </c>
+      <c r="I22">
+        <v>-0.02546599793023054</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.00790852980666229</v>
+        <v>0.01057422376141417</v>
       </c>
       <c r="C23">
-        <v>-0.08105572352689057</v>
+        <v>0.1183612353712411</v>
       </c>
       <c r="D23">
-        <v>-0.2758023759446357</v>
+        <v>-0.09791239183061581</v>
       </c>
       <c r="E23">
-        <v>-0.1043788046102888</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.286315035750459</v>
+      </c>
+      <c r="F23">
+        <v>0.08054949604046767</v>
+      </c>
+      <c r="G23">
+        <v>-0.3260053355881305</v>
+      </c>
+      <c r="H23">
+        <v>0.3919234034082624</v>
+      </c>
+      <c r="I23">
+        <v>-0.02811144458277163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.006712563046766163</v>
+        <v>-0.01265185193332295</v>
       </c>
       <c r="C24">
-        <v>-0.07301394645957258</v>
+        <v>0.077706410199867</v>
       </c>
       <c r="D24">
-        <v>-0.035094747893416</v>
+        <v>0.007120116850308973</v>
       </c>
       <c r="E24">
-        <v>-0.03950839347122041</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.04594502640436976</v>
+      </c>
+      <c r="F24">
+        <v>0.01013658918224963</v>
+      </c>
+      <c r="G24">
+        <v>0.02808307227804844</v>
+      </c>
+      <c r="H24">
+        <v>-0.05792246645338323</v>
+      </c>
+      <c r="I24">
+        <v>-0.002900236464565078</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.01222698172608431</v>
+        <v>-0.0175558818791817</v>
       </c>
       <c r="C25">
-        <v>-0.06304615839598687</v>
+        <v>0.07159974668455259</v>
       </c>
       <c r="D25">
-        <v>-0.03512611734900103</v>
+        <v>0.000140233050515422</v>
       </c>
       <c r="E25">
-        <v>-0.01702770749355201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03666645176490459</v>
+      </c>
+      <c r="F25">
+        <v>0.01242253287441059</v>
+      </c>
+      <c r="G25">
+        <v>0.02424959294375154</v>
+      </c>
+      <c r="H25">
+        <v>-0.03906742771132053</v>
+      </c>
+      <c r="I25">
+        <v>-0.02009330289650042</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.002685212433855594</v>
+        <v>-0.01665024193803723</v>
       </c>
       <c r="C26">
-        <v>-0.03283060738524994</v>
+        <v>0.05312464339149166</v>
       </c>
       <c r="D26">
-        <v>-0.05348403993877613</v>
+        <v>0.02447257949443074</v>
       </c>
       <c r="E26">
-        <v>-0.06208009168594455</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.08179811875476098</v>
+      </c>
+      <c r="F26">
+        <v>0.002871064127009314</v>
+      </c>
+      <c r="G26">
+        <v>0.01684342861644485</v>
+      </c>
+      <c r="H26">
+        <v>-0.1329091199577283</v>
+      </c>
+      <c r="I26">
+        <v>-0.01537582161497714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.3120326160024473</v>
+        <v>-0.3118587623136922</v>
       </c>
       <c r="C28">
-        <v>0.1164450669061525</v>
+        <v>-0.1032247954621941</v>
       </c>
       <c r="D28">
-        <v>-0.0006999795788118322</v>
+        <v>-0.008213324090020237</v>
       </c>
       <c r="E28">
-        <v>0.07275725185179469</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.01761912876045224</v>
+      </c>
+      <c r="F28">
+        <v>0.03370244232180147</v>
+      </c>
+      <c r="G28">
+        <v>-0.08133008267860127</v>
+      </c>
+      <c r="H28">
+        <v>-0.06540405117910027</v>
+      </c>
+      <c r="I28">
+        <v>-0.1877025185833334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.001291800673214045</v>
+        <v>-0.005099109514852653</v>
       </c>
       <c r="C29">
-        <v>-0.0357596435165933</v>
+        <v>0.0634374610714661</v>
       </c>
       <c r="D29">
-        <v>-0.07098371897551603</v>
+        <v>-0.006585103927047213</v>
       </c>
       <c r="E29">
-        <v>-0.08010716084962263</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.1191737203148028</v>
+      </c>
+      <c r="F29">
+        <v>-0.03335464286317063</v>
+      </c>
+      <c r="G29">
+        <v>0.08588565889554882</v>
+      </c>
+      <c r="H29">
+        <v>-0.1935784182730875</v>
+      </c>
+      <c r="I29">
+        <v>0.04929683830371599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02504729813011118</v>
+        <v>-0.02167483602001364</v>
       </c>
       <c r="C30">
-        <v>-0.1197049354034376</v>
+        <v>0.1340687582805465</v>
       </c>
       <c r="D30">
-        <v>-0.1252923833713809</v>
+        <v>-0.01084140483249176</v>
       </c>
       <c r="E30">
-        <v>-0.09179845703330505</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.1148765834867628</v>
+      </c>
+      <c r="F30">
+        <v>0.02465294736121561</v>
+      </c>
+      <c r="G30">
+        <v>-0.02276900476081867</v>
+      </c>
+      <c r="H30">
+        <v>-0.03188454246524231</v>
+      </c>
+      <c r="I30">
+        <v>0.02619320247478396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.003602974156717529</v>
+        <v>-0.00809801272862698</v>
       </c>
       <c r="C31">
-        <v>-0.09647354686993828</v>
+        <v>0.09966001412188376</v>
       </c>
       <c r="D31">
-        <v>0.001451870383614911</v>
+        <v>0.01804272860133039</v>
       </c>
       <c r="E31">
-        <v>-0.02857190014435439</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01363545265364016</v>
+      </c>
+      <c r="F31">
+        <v>-0.003368974010430612</v>
+      </c>
+      <c r="G31">
+        <v>-0.01969293823550871</v>
+      </c>
+      <c r="H31">
+        <v>-0.05710799988883843</v>
+      </c>
+      <c r="I31">
+        <v>-0.02070263441141998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01540941005650097</v>
+        <v>-0.0176768514665376</v>
       </c>
       <c r="C32">
-        <v>-0.05524762100050674</v>
+        <v>0.06147864950878185</v>
       </c>
       <c r="D32">
-        <v>-0.1369420932463686</v>
+        <v>-0.02390405292743975</v>
       </c>
       <c r="E32">
-        <v>-0.04836213868642589</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.1070810447468745</v>
+      </c>
+      <c r="F32">
+        <v>-0.03395006407410107</v>
+      </c>
+      <c r="G32">
+        <v>-0.04311103922740048</v>
+      </c>
+      <c r="H32">
+        <v>-0.09625920504793962</v>
+      </c>
+      <c r="I32">
+        <v>-0.21687961559134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.0009118434213774546</v>
+        <v>-0.008306856487351117</v>
       </c>
       <c r="C33">
-        <v>-0.07558107942731045</v>
+        <v>0.09917949341408583</v>
       </c>
       <c r="D33">
-        <v>-0.06619250342868851</v>
+        <v>-0.0116356804603688</v>
       </c>
       <c r="E33">
-        <v>-0.05636775994307331</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.08242493816887447</v>
+      </c>
+      <c r="F33">
+        <v>0.003642015129390181</v>
+      </c>
+      <c r="G33">
+        <v>0.02391920117055867</v>
+      </c>
+      <c r="H33">
+        <v>-0.06060265917581019</v>
+      </c>
+      <c r="I33">
+        <v>-0.03138483919880361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.001162297286464127</v>
+        <v>-0.01074822143048858</v>
       </c>
       <c r="C34">
-        <v>-0.05443541565349183</v>
+        <v>0.05641058083250024</v>
       </c>
       <c r="D34">
-        <v>-0.0225567917141967</v>
+        <v>0.006059432616616775</v>
       </c>
       <c r="E34">
-        <v>-0.02103083984529013</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02859985382194715</v>
+      </c>
+      <c r="F34">
+        <v>-0.002769639068302511</v>
+      </c>
+      <c r="G34">
+        <v>0.02793910050274371</v>
+      </c>
+      <c r="H34">
+        <v>-0.017240929974221</v>
+      </c>
+      <c r="I34">
+        <v>-0.02432045074126845</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.0009711354787349681</v>
+        <v>-0.00608557593542261</v>
       </c>
       <c r="C35">
-        <v>-0.004032225821497273</v>
+        <v>0.02850479934695863</v>
       </c>
       <c r="D35">
-        <v>-0.01121361866231115</v>
+        <v>-0.004707077771955895</v>
       </c>
       <c r="E35">
-        <v>-0.004197813604755532</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.04625301412036654</v>
+      </c>
+      <c r="F35">
+        <v>-0.00318730509642202</v>
+      </c>
+      <c r="G35">
+        <v>0.03766095554132273</v>
+      </c>
+      <c r="H35">
+        <v>-0.1103469980333862</v>
+      </c>
+      <c r="I35">
+        <v>0.0001685008762713503</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.003322774074370923</v>
+        <v>-0.009762684760046185</v>
       </c>
       <c r="C36">
-        <v>-0.0332520599398583</v>
+        <v>0.04433687627235779</v>
       </c>
       <c r="D36">
-        <v>-0.04643312257028512</v>
+        <v>0.01128332315599597</v>
       </c>
       <c r="E36">
-        <v>-0.06540767820073431</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.07213805985404428</v>
+      </c>
+      <c r="F36">
+        <v>0.001994302092738888</v>
+      </c>
+      <c r="G36">
+        <v>0.01282300402983518</v>
+      </c>
+      <c r="H36">
+        <v>-0.07691001009865059</v>
+      </c>
+      <c r="I36">
+        <v>-0.003369981356367219</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.002821208066102244</v>
+        <v>-0.004812290918437021</v>
       </c>
       <c r="C38">
-        <v>-0.02624458785184175</v>
+        <v>0.05077817900060298</v>
       </c>
       <c r="D38">
-        <v>-0.049637440875452</v>
+        <v>-0.004544414231124708</v>
       </c>
       <c r="E38">
-        <v>-0.05011087821375272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.07580942707039653</v>
+      </c>
+      <c r="F38">
+        <v>0.04715048244173679</v>
+      </c>
+      <c r="G38">
+        <v>-0.0004614974743781515</v>
+      </c>
+      <c r="H38">
+        <v>-0.06383554575088246</v>
+      </c>
+      <c r="I38">
+        <v>-0.04017024180995088</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.008525444870408547</v>
+        <v>-0.01015501207543896</v>
       </c>
       <c r="C39">
-        <v>-0.09629695278357621</v>
+        <v>0.116495231192748</v>
       </c>
       <c r="D39">
-        <v>-0.09071353202812013</v>
+        <v>0.007191963967657592</v>
       </c>
       <c r="E39">
-        <v>-0.06999299337756729</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.08373057334077648</v>
+      </c>
+      <c r="F39">
+        <v>-0.005427053642777893</v>
+      </c>
+      <c r="G39">
+        <v>0.04490590135663037</v>
+      </c>
+      <c r="H39">
+        <v>-0.05292422286881043</v>
+      </c>
+      <c r="I39">
+        <v>0.04763566620156771</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.004052029646673465</v>
+        <v>-0.01123388952224292</v>
       </c>
       <c r="C40">
-        <v>-0.02713810902079321</v>
+        <v>0.05558145039151273</v>
       </c>
       <c r="D40">
-        <v>-0.07693330653048523</v>
+        <v>-0.02057615759486154</v>
       </c>
       <c r="E40">
-        <v>-0.1048331826442725</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.129151939136565</v>
+      </c>
+      <c r="F40">
+        <v>-0.0177381871262288</v>
+      </c>
+      <c r="G40">
+        <v>0.0632351661565933</v>
+      </c>
+      <c r="H40">
+        <v>0.002587589954346436</v>
+      </c>
+      <c r="I40">
+        <v>-0.01578067370634015</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.004826229023855877</v>
+        <v>-0.01647986915283592</v>
       </c>
       <c r="C41">
-        <v>-0.02914902356691177</v>
+        <v>0.04737421816077998</v>
       </c>
       <c r="D41">
-        <v>-0.002228627881779029</v>
+        <v>-0.001042314924504537</v>
       </c>
       <c r="E41">
-        <v>0.004646024080653106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01025608457634547</v>
+      </c>
+      <c r="F41">
+        <v>0.006857179760157861</v>
+      </c>
+      <c r="G41">
+        <v>0.01319506074217099</v>
+      </c>
+      <c r="H41">
+        <v>-0.03525623222502604</v>
+      </c>
+      <c r="I41">
+        <v>-0.04749697483223943</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.005163954534564089</v>
+        <v>-0.008819685988843029</v>
       </c>
       <c r="C43">
-        <v>-0.02443394022704674</v>
+        <v>0.04106734775615462</v>
       </c>
       <c r="D43">
-        <v>-0.02001072820039485</v>
+        <v>0.006030903154077233</v>
       </c>
       <c r="E43">
-        <v>-0.01531051773464992</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.0348687329232367</v>
+      </c>
+      <c r="F43">
+        <v>0.01691555743378928</v>
+      </c>
+      <c r="G43">
+        <v>0.01842756681359829</v>
+      </c>
+      <c r="H43">
+        <v>-0.05066024119024836</v>
+      </c>
+      <c r="I43">
+        <v>-0.0246417857926104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01641839573683405</v>
+        <v>-0.006435297932099218</v>
       </c>
       <c r="C44">
-        <v>-0.06781488927477575</v>
+        <v>0.08343364760574526</v>
       </c>
       <c r="D44">
-        <v>-0.1103789334722234</v>
+        <v>0.004141070533913124</v>
       </c>
       <c r="E44">
-        <v>-0.07468900815907617</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.1137774551460564</v>
+      </c>
+      <c r="F44">
+        <v>0.006070943003271026</v>
+      </c>
+      <c r="G44">
+        <v>-0.001420315628901694</v>
+      </c>
+      <c r="H44">
+        <v>-0.03192934126454952</v>
+      </c>
+      <c r="I44">
+        <v>0.02834891864290549</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1999,196 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.001827752181966891</v>
+        <v>0.0008342519433311245</v>
       </c>
       <c r="C46">
-        <v>-0.04229142265602405</v>
+        <v>0.05620299788022642</v>
       </c>
       <c r="D46">
-        <v>-0.06236321966342136</v>
+        <v>0.005399728949621986</v>
       </c>
       <c r="E46">
-        <v>-0.08904700876026397</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.08415935179673628</v>
+      </c>
+      <c r="F46">
+        <v>0.004795478403072085</v>
+      </c>
+      <c r="G46">
+        <v>0.04832516160845166</v>
+      </c>
+      <c r="H46">
+        <v>-0.1209067781965397</v>
+      </c>
+      <c r="I46">
+        <v>0.01247109477935084</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.02995720687747894</v>
+        <v>-0.02517443807373677</v>
       </c>
       <c r="C47">
-        <v>-0.1242968329583194</v>
+        <v>0.1126986288854913</v>
       </c>
       <c r="D47">
-        <v>0.0005645049559051113</v>
+        <v>0.02073913563874805</v>
       </c>
       <c r="E47">
-        <v>0.02500626947372021</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.00407581161377429</v>
+      </c>
+      <c r="F47">
+        <v>0.01318228740372322</v>
+      </c>
+      <c r="G47">
+        <v>-0.008268729289876504</v>
+      </c>
+      <c r="H47">
+        <v>-0.08450713184261019</v>
+      </c>
+      <c r="I47">
+        <v>-0.02948336747111156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.009316049979028199</v>
+        <v>-0.01550245841442719</v>
       </c>
       <c r="C48">
-        <v>-0.03664705743313123</v>
+        <v>0.05035153902349523</v>
       </c>
       <c r="D48">
-        <v>-0.04014902526759326</v>
+        <v>0.02189450457661944</v>
       </c>
       <c r="E48">
-        <v>-0.08701967350158693</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.07918660754803965</v>
+      </c>
+      <c r="F48">
+        <v>0.009810782269984266</v>
+      </c>
+      <c r="G48">
+        <v>0.01121114618495766</v>
+      </c>
+      <c r="H48">
+        <v>-0.1312297670250581</v>
+      </c>
+      <c r="I48">
+        <v>0.004060579340953785</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.003976816354736214</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.007726288007305076</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.009030486144895438</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.0007126915360969043</v>
+      </c>
+      <c r="F49">
+        <v>-0.004763174658992606</v>
+      </c>
+      <c r="G49">
+        <v>0.02154587326788984</v>
+      </c>
+      <c r="H49">
+        <v>0.005700262038123636</v>
+      </c>
+      <c r="I49">
+        <v>-0.001416684345243407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.008318097497999539</v>
+        <v>-0.01088024543396533</v>
       </c>
       <c r="C50">
-        <v>-0.06244509671662822</v>
+        <v>0.07486462869623065</v>
       </c>
       <c r="D50">
-        <v>-0.01996792716406618</v>
+        <v>-0.001829721015899142</v>
       </c>
       <c r="E50">
-        <v>-0.0250805181604054</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.02484108147511997</v>
+      </c>
+      <c r="F50">
+        <v>0.01195584960034507</v>
+      </c>
+      <c r="G50">
+        <v>-0.0158301273116547</v>
+      </c>
+      <c r="H50">
+        <v>-0.05888226795061022</v>
+      </c>
+      <c r="I50">
+        <v>-0.04508679719873433</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.001200613614895611</v>
+        <v>0.005637203762542552</v>
       </c>
       <c r="C51">
-        <v>-0.02147586637045164</v>
+        <v>0.03027170866742768</v>
       </c>
       <c r="D51">
-        <v>-0.08675257718889502</v>
+        <v>-0.005272206246074548</v>
       </c>
       <c r="E51">
-        <v>-0.06543535267350294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.07311466357389568</v>
+      </c>
+      <c r="F51">
+        <v>-0.007274713292848701</v>
+      </c>
+      <c r="G51">
+        <v>-0.005418049120507447</v>
+      </c>
+      <c r="H51">
+        <v>-0.1100499714230021</v>
+      </c>
+      <c r="I51">
+        <v>0.02969609872890644</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.06750053381961263</v>
+        <v>-0.05795803004126102</v>
       </c>
       <c r="C53">
-        <v>-0.1609119531370378</v>
+        <v>0.1571435584286728</v>
       </c>
       <c r="D53">
-        <v>0.04156856608998139</v>
+        <v>0.04327621860685217</v>
       </c>
       <c r="E53">
-        <v>0.01806508068632063</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.07235610707621985</v>
+      </c>
+      <c r="F53">
+        <v>0.007471742965280887</v>
+      </c>
+      <c r="G53">
+        <v>-0.02392332992044163</v>
+      </c>
+      <c r="H53">
+        <v>-0.01852229099671437</v>
+      </c>
+      <c r="I53">
+        <v>-0.0177729553644314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.007472533079245469</v>
+        <v>-0.01431931393266291</v>
       </c>
       <c r="C54">
-        <v>-0.04107283247312447</v>
+        <v>0.05897771927959738</v>
       </c>
       <c r="D54">
-        <v>-0.06849475803398573</v>
+        <v>-0.02565159789829555</v>
       </c>
       <c r="E54">
-        <v>-0.01792213756425641</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.0534796065484564</v>
+      </c>
+      <c r="F54">
+        <v>0.01137550736667356</v>
+      </c>
+      <c r="G54">
+        <v>0.006879879132327475</v>
+      </c>
+      <c r="H54">
+        <v>-0.09311307967120566</v>
+      </c>
+      <c r="I54">
+        <v>0.03422268242537933</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.04764355213964381</v>
+        <v>-0.03541805926874236</v>
       </c>
       <c r="C55">
-        <v>-0.122758066638689</v>
+        <v>0.1130894520673209</v>
       </c>
       <c r="D55">
-        <v>0.04536330657668422</v>
+        <v>0.05082472518841053</v>
       </c>
       <c r="E55">
-        <v>0.00364675679294867</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.0575841354395694</v>
+      </c>
+      <c r="F55">
+        <v>-0.00406475417275837</v>
+      </c>
+      <c r="G55">
+        <v>-0.017036949732201</v>
+      </c>
+      <c r="H55">
+        <v>-0.02391380099041999</v>
+      </c>
+      <c r="I55">
+        <v>0.01806807179904132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.07118629689829958</v>
+        <v>-0.05269976083819775</v>
       </c>
       <c r="C56">
-        <v>-0.1897366368014867</v>
+        <v>0.1850136022881852</v>
       </c>
       <c r="D56">
-        <v>0.05481925591246242</v>
+        <v>0.06076116575824614</v>
       </c>
       <c r="E56">
-        <v>0.04305979356227774</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.09769221519081357</v>
+      </c>
+      <c r="F56">
+        <v>-0.00304169807322183</v>
+      </c>
+      <c r="G56">
+        <v>-0.05996885293143422</v>
+      </c>
+      <c r="H56">
+        <v>-0.004680279649672043</v>
+      </c>
+      <c r="I56">
+        <v>-0.01743848274077938</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2347,370 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.01227594355795237</v>
+        <v>-0.00858526385292413</v>
       </c>
       <c r="C58">
-        <v>-0.1037488698735772</v>
+        <v>0.1362561779075185</v>
       </c>
       <c r="D58">
-        <v>-0.2933038241998031</v>
+        <v>-0.08150594664561306</v>
       </c>
       <c r="E58">
-        <v>-0.09477647025153696</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.2496998935231571</v>
+      </c>
+      <c r="F58">
+        <v>0.04143087330194656</v>
+      </c>
+      <c r="G58">
+        <v>-0.243262557512776</v>
+      </c>
+      <c r="H58">
+        <v>0.02353843381313097</v>
+      </c>
+      <c r="I58">
+        <v>0.006211051238163019</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.2461290911620842</v>
+        <v>-0.2707307785874816</v>
       </c>
       <c r="C59">
-        <v>0.05819291718441095</v>
+        <v>-0.04643049674033955</v>
       </c>
       <c r="D59">
-        <v>-0.07786900353084211</v>
+        <v>-0.01488586597582853</v>
       </c>
       <c r="E59">
-        <v>0.001160261781728659</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.04731935870843258</v>
+      </c>
+      <c r="F59">
+        <v>-0.02041971952732701</v>
+      </c>
+      <c r="G59">
+        <v>-0.01460156064819154</v>
+      </c>
+      <c r="H59">
+        <v>0.02367158157175229</v>
+      </c>
+      <c r="I59">
+        <v>-0.09957250204611165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1329354636843867</v>
+        <v>-0.1491032307145465</v>
       </c>
       <c r="C60">
-        <v>-0.1398180347859704</v>
+        <v>0.1568900067007853</v>
       </c>
       <c r="D60">
-        <v>-0.001657732891661256</v>
+        <v>0.007928577206445639</v>
       </c>
       <c r="E60">
-        <v>-0.03207436807709867</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.01867551393871529</v>
+      </c>
+      <c r="F60">
+        <v>-0.07604235059752829</v>
+      </c>
+      <c r="G60">
+        <v>0.2945771594043083</v>
+      </c>
+      <c r="H60">
+        <v>0.2922247084842145</v>
+      </c>
+      <c r="I60">
+        <v>0.04637250549222983</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.0126068203109239</v>
+        <v>-0.01631273736657548</v>
       </c>
       <c r="C61">
-        <v>-0.07732811999997419</v>
+        <v>0.09797553704519114</v>
       </c>
       <c r="D61">
-        <v>-0.05020741267581984</v>
+        <v>0.009557006263365631</v>
       </c>
       <c r="E61">
-        <v>-0.05410798117468547</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.06118857963290529</v>
+      </c>
+      <c r="F61">
+        <v>0.007039718718532991</v>
+      </c>
+      <c r="G61">
+        <v>0.05144404131154157</v>
+      </c>
+      <c r="H61">
+        <v>-0.05804845158378222</v>
+      </c>
+      <c r="I61">
+        <v>0.01388430610729001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.000686679631044934</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.000795412743937192</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.0002040166502277213</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.0009373751761208807</v>
+      </c>
+      <c r="F62">
+        <v>0.0008443942809212675</v>
+      </c>
+      <c r="G62">
+        <v>-0.002557679160717024</v>
+      </c>
+      <c r="H62">
+        <v>-0.005241262148227315</v>
+      </c>
+      <c r="I62">
+        <v>-0.002421013473207348</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.00292114213205269</v>
+        <v>-0.01677311517985226</v>
       </c>
       <c r="C63">
-        <v>-0.05382423100901745</v>
+        <v>0.0684906814032047</v>
       </c>
       <c r="D63">
-        <v>-0.04762595998622549</v>
+        <v>0.01693095011265328</v>
       </c>
       <c r="E63">
-        <v>-0.03639967713805745</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.06338920249786864</v>
+      </c>
+      <c r="F63">
+        <v>0.0007658734930501582</v>
+      </c>
+      <c r="G63">
+        <v>0.03054262800483913</v>
+      </c>
+      <c r="H63">
+        <v>-0.08283985462543715</v>
+      </c>
+      <c r="I63">
+        <v>-0.01620110873042218</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.02322722974784278</v>
+        <v>-0.01679846133881027</v>
       </c>
       <c r="C64">
-        <v>-0.1245068231050517</v>
+        <v>0.1122656310866698</v>
       </c>
       <c r="D64">
-        <v>0.007293614501581877</v>
+        <v>0.0187876995599511</v>
       </c>
       <c r="E64">
-        <v>-0.05421561242584359</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0182449685039448</v>
+      </c>
+      <c r="F64">
+        <v>0.02359900251502054</v>
+      </c>
+      <c r="G64">
+        <v>0.02152004071754335</v>
+      </c>
+      <c r="H64">
+        <v>-0.0002019221300483014</v>
+      </c>
+      <c r="I64">
+        <v>0.00337430005235954</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.0153921796961834</v>
+        <v>-0.02328001941004935</v>
       </c>
       <c r="C65">
-        <v>-0.04919018717484943</v>
+        <v>0.07252245953297053</v>
       </c>
       <c r="D65">
-        <v>-0.07658225202569324</v>
+        <v>-0.03057258120302466</v>
       </c>
       <c r="E65">
-        <v>-0.05791506024873803</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.1013168006244696</v>
+      </c>
+      <c r="F65">
+        <v>0.01528728442340094</v>
+      </c>
+      <c r="G65">
+        <v>0.07669104994222367</v>
+      </c>
+      <c r="H65">
+        <v>0.01070673030433082</v>
+      </c>
+      <c r="I65">
+        <v>0.02874663773487176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.007608069141086369</v>
+        <v>-0.009364046517741099</v>
       </c>
       <c r="C66">
-        <v>-0.1159673320932209</v>
+        <v>0.1412014236469593</v>
       </c>
       <c r="D66">
-        <v>-0.1259589439844625</v>
+        <v>-0.02106753190804635</v>
       </c>
       <c r="E66">
-        <v>-0.07721086975075399</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.1025546184095679</v>
+      </c>
+      <c r="F66">
+        <v>0.002553070327431681</v>
+      </c>
+      <c r="G66">
+        <v>0.02418781890707085</v>
+      </c>
+      <c r="H66">
+        <v>-0.0474998289385773</v>
+      </c>
+      <c r="I66">
+        <v>0.03412107039521255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.01427359007145522</v>
+        <v>-0.01590812816401667</v>
       </c>
       <c r="C67">
-        <v>-0.02842665636278075</v>
+        <v>0.04916269479672478</v>
       </c>
       <c r="D67">
-        <v>0.002069654947409152</v>
+        <v>0.01603615282276524</v>
       </c>
       <c r="E67">
-        <v>-0.03919774955812941</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.04361992880954042</v>
+      </c>
+      <c r="F67">
+        <v>0.04153166140540453</v>
+      </c>
+      <c r="G67">
+        <v>0.03409312127403776</v>
+      </c>
+      <c r="H67">
+        <v>-0.04271453356757097</v>
+      </c>
+      <c r="I67">
+        <v>-0.02456090299130617</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2442049362333258</v>
+        <v>-0.280723601346945</v>
       </c>
       <c r="C68">
-        <v>0.06971698379738793</v>
+        <v>-0.05606917550088199</v>
       </c>
       <c r="D68">
-        <v>-0.05472703595123959</v>
+        <v>-0.03747758546908277</v>
       </c>
       <c r="E68">
-        <v>0.007477232001418206</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.04044924619580514</v>
+      </c>
+      <c r="F68">
+        <v>0.004748117225520012</v>
+      </c>
+      <c r="G68">
+        <v>-0.0545020863454598</v>
+      </c>
+      <c r="H68">
+        <v>0.02430370016992592</v>
+      </c>
+      <c r="I68">
+        <v>-0.1020739042323477</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.03165967742718358</v>
+        <v>-0.01499126738916915</v>
       </c>
       <c r="C69">
-        <v>-0.132217195005414</v>
+        <v>0.1016044948428019</v>
       </c>
       <c r="D69">
-        <v>0.01548106570172749</v>
+        <v>0.03815358357445305</v>
       </c>
       <c r="E69">
-        <v>-0.02341730866574347</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01244392084344218</v>
+      </c>
+      <c r="F69">
+        <v>0.01243047448544585</v>
+      </c>
+      <c r="G69">
+        <v>-0.008289922115392834</v>
+      </c>
+      <c r="H69">
+        <v>-0.04843539180389735</v>
+      </c>
+      <c r="I69">
+        <v>-0.03575828495597492</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2590323152832299</v>
+        <v>-0.2689090297100328</v>
       </c>
       <c r="C71">
-        <v>0.08864822803359319</v>
+        <v>-0.07476835085121385</v>
       </c>
       <c r="D71">
-        <v>-0.04654046488445658</v>
+        <v>-0.01763192487213735</v>
       </c>
       <c r="E71">
-        <v>0.03517387117319286</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03543107425469434</v>
+      </c>
+      <c r="F71">
+        <v>0.02933719253567355</v>
+      </c>
+      <c r="G71">
+        <v>-0.01569000745239022</v>
+      </c>
+      <c r="H71">
+        <v>-0.0624088147616206</v>
+      </c>
+      <c r="I71">
+        <v>-0.1224660532130428</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.06833385916273521</v>
+        <v>-0.0611741650887517</v>
       </c>
       <c r="C72">
-        <v>-0.1488503826498565</v>
+        <v>0.1482179878262369</v>
       </c>
       <c r="D72">
-        <v>-0.04289817724685095</v>
+        <v>0.01341348097883447</v>
       </c>
       <c r="E72">
-        <v>-0.1112501410699585</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.02832847605308023</v>
+      </c>
+      <c r="F72">
+        <v>-0.007591836672798225</v>
+      </c>
+      <c r="G72">
+        <v>0.04440461117190107</v>
+      </c>
+      <c r="H72">
+        <v>0.0419008455193049</v>
+      </c>
+      <c r="I72">
+        <v>0.0880982437599197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1176837932164577</v>
+        <v>-0.1485491435753767</v>
       </c>
       <c r="C73">
-        <v>-0.1519250520541471</v>
+        <v>0.1898981287300814</v>
       </c>
       <c r="D73">
-        <v>-0.005164198418726255</v>
+        <v>0.02530649813409055</v>
       </c>
       <c r="E73">
-        <v>-0.06888203012374988</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.0472947370520961</v>
+      </c>
+      <c r="F73">
+        <v>-0.08038423416714637</v>
+      </c>
+      <c r="G73">
+        <v>0.4521214682040066</v>
+      </c>
+      <c r="H73">
+        <v>0.2653773755156055</v>
+      </c>
+      <c r="I73">
+        <v>-0.01050305443051234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.05129184762341111</v>
+        <v>-0.04293751110548494</v>
       </c>
       <c r="C74">
-        <v>-0.1183292427581627</v>
+        <v>0.1176553687632794</v>
       </c>
       <c r="D74">
-        <v>0.06502501458340194</v>
+        <v>0.04938767610216738</v>
       </c>
       <c r="E74">
-        <v>0.008113059526883029</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.0567841684460074</v>
+      </c>
+      <c r="F74">
+        <v>0.01431869545833713</v>
+      </c>
+      <c r="G74">
+        <v>-0.01137291301354613</v>
+      </c>
+      <c r="H74">
+        <v>-0.02152995333672877</v>
+      </c>
+      <c r="I74">
+        <v>0.01186469665952075</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1253155951954203</v>
+        <v>-0.07959172295166764</v>
       </c>
       <c r="C75">
-        <v>-0.2547007499513664</v>
+        <v>0.2330453671679435</v>
       </c>
       <c r="D75">
-        <v>0.1635114721658676</v>
+        <v>0.102209640937764</v>
       </c>
       <c r="E75">
-        <v>0.07191134689448395</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.2039824027265171</v>
+      </c>
+      <c r="F75">
+        <v>0.08049828919591599</v>
+      </c>
+      <c r="G75">
+        <v>-0.07449870001735488</v>
+      </c>
+      <c r="H75">
+        <v>0.01367677459196845</v>
+      </c>
+      <c r="I75">
+        <v>-0.06759588809472152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.06233887491448969</v>
+        <v>-0.04634277171734039</v>
       </c>
       <c r="C76">
-        <v>-0.1668808701349182</v>
+        <v>0.1627216992284014</v>
       </c>
       <c r="D76">
-        <v>0.08204984530744971</v>
+        <v>0.07043362525782235</v>
       </c>
       <c r="E76">
-        <v>0.02076994716972354</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.08785057247781429</v>
+      </c>
+      <c r="F76">
+        <v>0.003785576635314169</v>
+      </c>
+      <c r="G76">
+        <v>0.00389896506991297</v>
+      </c>
+      <c r="H76">
+        <v>-0.02621991958865615</v>
+      </c>
+      <c r="I76">
+        <v>-0.005670318801481435</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02768526548122269</v>
+        <v>-0.02557969892988124</v>
       </c>
       <c r="C77">
-        <v>-0.1177748248440738</v>
+        <v>0.1719961488684629</v>
       </c>
       <c r="D77">
-        <v>-0.4676280107620058</v>
+        <v>-0.9294425603070388</v>
       </c>
       <c r="E77">
-        <v>0.801882835264266</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.2926497805465003</v>
+      </c>
+      <c r="F77">
+        <v>0.02736425059880421</v>
+      </c>
+      <c r="G77">
+        <v>0.04210552892662002</v>
+      </c>
+      <c r="H77">
+        <v>-0.05324428308255476</v>
+      </c>
+      <c r="I77">
+        <v>0.02747696720519163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02234735384684451</v>
+        <v>-0.02494169966015528</v>
       </c>
       <c r="C78">
-        <v>-0.10571452133517</v>
+        <v>0.1092761470724349</v>
       </c>
       <c r="D78">
-        <v>-0.1261181149648202</v>
+        <v>0.02855227821731125</v>
       </c>
       <c r="E78">
-        <v>-0.07006052439637155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.08789273892953188</v>
+      </c>
+      <c r="F78">
+        <v>-0.02496246204154448</v>
+      </c>
+      <c r="G78">
+        <v>-0.07071027527700544</v>
+      </c>
+      <c r="H78">
+        <v>-0.1269072747648805</v>
+      </c>
+      <c r="I78">
+        <v>0.1141884265614679</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1105570749362312</v>
+        <v>-0.07416831009966986</v>
       </c>
       <c r="C79">
-        <v>-0.2822603623451916</v>
+        <v>0.2312501694590181</v>
       </c>
       <c r="D79">
-        <v>0.1931121596466413</v>
+        <v>0.1014168605998133</v>
       </c>
       <c r="E79">
-        <v>0.08634941499421936</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.2221448374339386</v>
+      </c>
+      <c r="F79">
+        <v>-0.004367501075152299</v>
+      </c>
+      <c r="G79">
+        <v>-0.1608514387456665</v>
+      </c>
+      <c r="H79">
+        <v>-0.03820712663501168</v>
+      </c>
+      <c r="I79">
+        <v>-0.05481535543232533</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.008342264168336595</v>
+        <v>-0.007351212607604074</v>
       </c>
       <c r="C80">
-        <v>-0.05859966390990239</v>
+        <v>0.05786753048171733</v>
       </c>
       <c r="D80">
-        <v>-0.009866962811351229</v>
+        <v>0.02482430791710492</v>
       </c>
       <c r="E80">
-        <v>-0.04991376028828041</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.05815959379939287</v>
+      </c>
+      <c r="F80">
+        <v>-0.06488157481934571</v>
+      </c>
+      <c r="G80">
+        <v>0.04825437388181907</v>
+      </c>
+      <c r="H80">
+        <v>0.03192624357988352</v>
+      </c>
+      <c r="I80">
+        <v>-0.04483102601805197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.05368086232585657</v>
+        <v>-0.02824954105248338</v>
       </c>
       <c r="C81">
-        <v>-0.1446990101973421</v>
+        <v>0.1369345159007888</v>
       </c>
       <c r="D81">
-        <v>0.09303914963400478</v>
+        <v>0.0488875364567653</v>
       </c>
       <c r="E81">
-        <v>0.04977975988798315</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.08510933966649969</v>
+      </c>
+      <c r="F81">
+        <v>0.01575598842026782</v>
+      </c>
+      <c r="G81">
+        <v>-0.05041251036622603</v>
+      </c>
+      <c r="H81">
+        <v>-0.0655307554885812</v>
+      </c>
+      <c r="I81">
+        <v>-0.06943091536983742</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.09972799875139116</v>
+        <v>-0.06261153566765096</v>
       </c>
       <c r="C82">
-        <v>-0.2281945785457131</v>
+        <v>0.1885158241801883</v>
       </c>
       <c r="D82">
-        <v>0.1318739683562293</v>
+        <v>0.09091258257488107</v>
       </c>
       <c r="E82">
-        <v>0.03994469068033456</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1401272571728516</v>
+      </c>
+      <c r="F82">
+        <v>-0.001022667565461242</v>
+      </c>
+      <c r="G82">
+        <v>-0.03622444350963051</v>
+      </c>
+      <c r="H82">
+        <v>-0.04508377784515945</v>
+      </c>
+      <c r="I82">
+        <v>-0.05319255600037514</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.004583793241087918</v>
+        <v>-0.0008695848449945992</v>
       </c>
       <c r="C83">
-        <v>-0.06148711122281465</v>
+        <v>0.02117370760680982</v>
       </c>
       <c r="D83">
-        <v>-0.0514929182465449</v>
+        <v>-0.03845754955462062</v>
       </c>
       <c r="E83">
-        <v>-0.004363248478588069</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.002761025946939437</v>
+      </c>
+      <c r="F83">
+        <v>-0.9449072414416921</v>
+      </c>
+      <c r="G83">
+        <v>-0.1613702398252216</v>
+      </c>
+      <c r="H83">
+        <v>0.02712926409986824</v>
+      </c>
+      <c r="I83">
+        <v>-0.1124969037795681</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.002870215627871017</v>
+        <v>0.003426173190110579</v>
       </c>
       <c r="C84">
-        <v>-0.0201693922175783</v>
+        <v>0.03518503009264497</v>
       </c>
       <c r="D84">
-        <v>-0.04118580641264327</v>
+        <v>0.005462854701416492</v>
       </c>
       <c r="E84">
-        <v>-0.06342266507477651</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.06328091295251836</v>
+      </c>
+      <c r="F84">
+        <v>0.04357208447112337</v>
+      </c>
+      <c r="G84">
+        <v>-0.06839174761117757</v>
+      </c>
+      <c r="H84">
+        <v>-0.06511960219730062</v>
+      </c>
+      <c r="I84">
+        <v>0.04945123286008649</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.06250660078138194</v>
+        <v>-0.04123246229418777</v>
       </c>
       <c r="C85">
-        <v>-0.1832393559107244</v>
+        <v>0.1634047877243472</v>
       </c>
       <c r="D85">
-        <v>0.1267753927220638</v>
+        <v>0.09599377945064066</v>
       </c>
       <c r="E85">
-        <v>0.03709109822009297</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1419850119959751</v>
+      </c>
+      <c r="F85">
+        <v>0.007274077985622831</v>
+      </c>
+      <c r="G85">
+        <v>-0.05954154336078622</v>
+      </c>
+      <c r="H85">
+        <v>-0.02075084768548663</v>
+      </c>
+      <c r="I85">
+        <v>-0.03722929491550642</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01788505488564876</v>
+        <v>-0.01339405997761417</v>
       </c>
       <c r="C86">
-        <v>-0.03820701387220289</v>
+        <v>0.06472047068749869</v>
       </c>
       <c r="D86">
-        <v>-0.1045895790693027</v>
+        <v>-0.03314378775379762</v>
       </c>
       <c r="E86">
-        <v>0.03934146433690837</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.06466148271321502</v>
+      </c>
+      <c r="F86">
+        <v>0.03563270188737394</v>
+      </c>
+      <c r="G86">
+        <v>-0.07652242776864658</v>
+      </c>
+      <c r="H86">
+        <v>-0.06942943887184733</v>
+      </c>
+      <c r="I86">
+        <v>-0.08083394347713996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02268735664848913</v>
+        <v>-0.01624620125914918</v>
       </c>
       <c r="C87">
-        <v>-0.08352512025237746</v>
+        <v>0.1033638499151916</v>
       </c>
       <c r="D87">
-        <v>-0.1592066485685042</v>
+        <v>-0.04307931401775304</v>
       </c>
       <c r="E87">
-        <v>-0.08250663773575283</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.1266825809332644</v>
+      </c>
+      <c r="F87">
+        <v>0.009592844257256627</v>
+      </c>
+      <c r="G87">
+        <v>-0.05349518504326885</v>
+      </c>
+      <c r="H87">
+        <v>-0.03638387171195154</v>
+      </c>
+      <c r="I87">
+        <v>0.1495927550547229</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.02767451494700224</v>
+        <v>-0.03435432237711671</v>
       </c>
       <c r="C88">
-        <v>-0.0766892121052009</v>
+        <v>0.08317425908453802</v>
       </c>
       <c r="D88">
-        <v>0.03883351209935151</v>
+        <v>0.01657832397089271</v>
       </c>
       <c r="E88">
-        <v>-0.01176093909987854</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.002181084596580093</v>
+      </c>
+      <c r="F88">
+        <v>0.0085043426960172</v>
+      </c>
+      <c r="G88">
+        <v>0.02572461575229418</v>
+      </c>
+      <c r="H88">
+        <v>-0.0138591132971576</v>
+      </c>
+      <c r="I88">
+        <v>-0.02676328314366191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.4410878205753479</v>
+        <v>-0.4113686450914494</v>
       </c>
       <c r="C89">
-        <v>0.1675875732344817</v>
+        <v>-0.1339685537851776</v>
       </c>
       <c r="D89">
-        <v>0.007130204841390289</v>
+        <v>-0.006787732609272355</v>
       </c>
       <c r="E89">
-        <v>-0.2473360090422945</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.03991422939810442</v>
+      </c>
+      <c r="F89">
+        <v>-0.09081118154483322</v>
+      </c>
+      <c r="G89">
+        <v>-0.1049607534648755</v>
+      </c>
+      <c r="H89">
+        <v>-0.07465358246379837</v>
+      </c>
+      <c r="I89">
+        <v>0.7860747455898606</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.3153458248778045</v>
+        <v>-0.3216191963336659</v>
       </c>
       <c r="C90">
-        <v>0.1106286716542721</v>
+        <v>-0.08359684993889883</v>
       </c>
       <c r="D90">
-        <v>-0.09139035109840138</v>
+        <v>-0.02348766373621982</v>
       </c>
       <c r="E90">
-        <v>0.0008310706416884876</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.04793485891138457</v>
+      </c>
+      <c r="F90">
+        <v>0.009348561697908915</v>
+      </c>
+      <c r="G90">
+        <v>-0.02234618907279185</v>
+      </c>
+      <c r="H90">
+        <v>0.01875105029225289</v>
+      </c>
+      <c r="I90">
+        <v>-0.1562110860487068</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.0773329779679237</v>
+        <v>-0.06036361568851164</v>
       </c>
       <c r="C91">
-        <v>-0.1895537669584433</v>
+        <v>0.158628993329769</v>
       </c>
       <c r="D91">
-        <v>0.1079597386343302</v>
+        <v>0.05163921228011187</v>
       </c>
       <c r="E91">
-        <v>0.06434483698418504</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.132994399551383</v>
+      </c>
+      <c r="F91">
+        <v>-0.02505994917346001</v>
+      </c>
+      <c r="G91">
+        <v>-0.05188420177866738</v>
+      </c>
+      <c r="H91">
+        <v>-0.01477471359388214</v>
+      </c>
+      <c r="I91">
+        <v>-0.02971543680571352</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.3305277465097003</v>
+        <v>-0.3452322438704347</v>
       </c>
       <c r="C92">
-        <v>0.1529462789268477</v>
+        <v>-0.1300412628081706</v>
       </c>
       <c r="D92">
-        <v>-0.05984857404191007</v>
+        <v>-0.04830758638138893</v>
       </c>
       <c r="E92">
-        <v>0.05639357070522275</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.03852151342534876</v>
+      </c>
+      <c r="F92">
+        <v>0.0933805941546227</v>
+      </c>
+      <c r="G92">
+        <v>-0.03453924683771217</v>
+      </c>
+      <c r="H92">
+        <v>-0.02680361441588369</v>
+      </c>
+      <c r="I92">
+        <v>-0.1701231770983953</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.3284271315975721</v>
+        <v>-0.3246108343036349</v>
       </c>
       <c r="C93">
-        <v>0.1372134864921073</v>
+        <v>-0.1200660928822189</v>
       </c>
       <c r="D93">
-        <v>0.009299817589004476</v>
+        <v>0.00576684976512548</v>
       </c>
       <c r="E93">
-        <v>0.01762044753187206</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.009000808572131209</v>
+      </c>
+      <c r="F93">
+        <v>0.01849308556064067</v>
+      </c>
+      <c r="G93">
+        <v>-0.0355493484871473</v>
+      </c>
+      <c r="H93">
+        <v>-0.03812048889982465</v>
+      </c>
+      <c r="I93">
+        <v>-0.1057221991110166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1450733051112981</v>
+        <v>-0.1028214989117238</v>
       </c>
       <c r="C94">
-        <v>-0.3046681006539118</v>
+        <v>0.2641102752173887</v>
       </c>
       <c r="D94">
-        <v>0.2653730345420445</v>
+        <v>0.1550340402421756</v>
       </c>
       <c r="E94">
-        <v>0.08564494430689523</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.3660490771830608</v>
+      </c>
+      <c r="F94">
+        <v>0.02042482888265629</v>
+      </c>
+      <c r="G94">
+        <v>-0.2417364317369548</v>
+      </c>
+      <c r="H94">
+        <v>0.1243833036093827</v>
+      </c>
+      <c r="I94">
+        <v>0.1645625184013033</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.03289491089433159</v>
+        <v>-0.03564173311532037</v>
       </c>
       <c r="C95">
-        <v>-0.06272969103169583</v>
+        <v>0.1060097244725596</v>
       </c>
       <c r="D95">
-        <v>-0.01221498157953633</v>
+        <v>-0.01683148109032891</v>
       </c>
       <c r="E95">
-        <v>-0.02412448969436239</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.0439370061311288</v>
+      </c>
+      <c r="F95">
+        <v>0.03936674966906793</v>
+      </c>
+      <c r="G95">
+        <v>0.1250183376308431</v>
+      </c>
+      <c r="H95">
+        <v>-0.06459026803302126</v>
+      </c>
+      <c r="I95">
+        <v>0.003406443371510325</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.003657380575078746</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001308153514742036</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.01388470250395405</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.007338373421857397</v>
+      </c>
+      <c r="F97">
+        <v>0.01911948251509808</v>
+      </c>
+      <c r="G97">
+        <v>0.005503369678704111</v>
+      </c>
+      <c r="H97">
+        <v>-0.004636174550199429</v>
+      </c>
+      <c r="I97">
+        <v>-0.02352063133590751</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.09328522059204296</v>
+        <v>-0.1278967035491321</v>
       </c>
       <c r="C98">
-        <v>-0.1227179458925819</v>
+        <v>0.1533472618682504</v>
       </c>
       <c r="D98">
-        <v>-0.05970083372360709</v>
+        <v>0.02847399355333159</v>
       </c>
       <c r="E98">
-        <v>-0.06877259657507553</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.0754103743667161</v>
+      </c>
+      <c r="F98">
+        <v>-0.0447921467154898</v>
+      </c>
+      <c r="G98">
+        <v>0.392960706274325</v>
+      </c>
+      <c r="H98">
+        <v>0.3185786255539934</v>
+      </c>
+      <c r="I98">
+        <v>0.04426772214543823</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.002547027775244551</v>
+        <v>-0.005243012775101514</v>
       </c>
       <c r="C101">
-        <v>-0.03498481930970941</v>
+        <v>0.0621202405574776</v>
       </c>
       <c r="D101">
-        <v>-0.07112636148840915</v>
+        <v>-0.007166515606659781</v>
       </c>
       <c r="E101">
-        <v>-0.08006554410143674</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.1181244263169188</v>
+      </c>
+      <c r="F101">
+        <v>-0.03307051654685387</v>
+      </c>
+      <c r="G101">
+        <v>0.08476046774146946</v>
+      </c>
+      <c r="H101">
+        <v>-0.1923005322979024</v>
+      </c>
+      <c r="I101">
+        <v>0.04815628080699871</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.04718545478464409</v>
+        <v>-0.01789130389802619</v>
       </c>
       <c r="C102">
-        <v>-0.1259628187319872</v>
+        <v>0.07625136906217446</v>
       </c>
       <c r="D102">
-        <v>0.0646667321063666</v>
+        <v>0.03683662604168775</v>
       </c>
       <c r="E102">
-        <v>0.01933036362322193</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.08238638642954312</v>
+      </c>
+      <c r="F102">
+        <v>-0.0141043999659435</v>
+      </c>
+      <c r="G102">
+        <v>-0.04158247954833846</v>
+      </c>
+      <c r="H102">
+        <v>-0.006533113966269919</v>
+      </c>
+      <c r="I102">
+        <v>0.009319829082932385</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
